--- a/models/Model index.xlsx
+++ b/models/Model index.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="35">
   <si>
     <t>Item</t>
   </si>
@@ -115,6 +115,12 @@
   </si>
   <si>
     <t>5x3</t>
+  </si>
+  <si>
+    <t>Incinerator</t>
+  </si>
+  <si>
+    <t>3x1</t>
   </si>
 </sst>
 </file>
@@ -455,10 +461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:G20"/>
+  <dimension ref="A2:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -503,7 +509,7 @@
         <v>8</v>
       </c>
       <c r="D3">
-        <f>C3/8</f>
+        <f t="shared" ref="D3:D21" si="0">C3/8</f>
         <v>1</v>
       </c>
       <c r="E3">
@@ -525,15 +531,15 @@
         <v>3</v>
       </c>
       <c r="D4">
-        <f>C4/8</f>
+        <f t="shared" si="0"/>
         <v>0.375</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="E4:E20" si="0">C4/C4*2</f>
+        <f t="shared" ref="E4:E21" si="1">C4/C4*2</f>
         <v>2</v>
       </c>
       <c r="F4">
-        <f>1/D4</f>
+        <f t="shared" ref="F4:F21" si="2">1/D4</f>
         <v>2.6666666666666665</v>
       </c>
     </row>
@@ -548,15 +554,15 @@
         <v>4</v>
       </c>
       <c r="D5">
-        <f>C5/8</f>
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
       <c r="E5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="F5">
-        <f>1/D5</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
@@ -571,15 +577,15 @@
         <v>2</v>
       </c>
       <c r="D6">
-        <f>C6/8</f>
+        <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
       <c r="E6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="F6">
-        <f>1/D6</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
@@ -594,15 +600,15 @@
         <v>2</v>
       </c>
       <c r="D7">
-        <f>C7/8</f>
+        <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
       <c r="E7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="F7">
-        <f>1/D7</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
@@ -617,15 +623,15 @@
         <v>4</v>
       </c>
       <c r="D8">
-        <f>C8/8</f>
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
       <c r="E8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="F8">
-        <f>1/D8</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
@@ -640,15 +646,15 @@
         <v>2</v>
       </c>
       <c r="D9">
-        <f>C9/8</f>
+        <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
       <c r="E9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="F9">
-        <f>1/D9</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
@@ -663,15 +669,15 @@
         <v>1</v>
       </c>
       <c r="D10">
-        <f>C10/8</f>
+        <f t="shared" si="0"/>
         <v>0.125</v>
       </c>
       <c r="E10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="F10">
-        <f>1/D10</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
     </row>
@@ -686,15 +692,15 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <f>C11/8</f>
+        <f t="shared" si="0"/>
         <v>0.125</v>
       </c>
       <c r="E11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="F11">
-        <f>1/D11</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
     </row>
@@ -709,15 +715,15 @@
         <v>2</v>
       </c>
       <c r="D12">
-        <f>C12/8</f>
+        <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
       <c r="E12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="F12">
-        <f>1/D12</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
@@ -732,15 +738,15 @@
         <v>5</v>
       </c>
       <c r="D13">
-        <f>C13/8</f>
+        <f t="shared" si="0"/>
         <v>0.625</v>
       </c>
       <c r="E13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="F13">
-        <f>1/D13</f>
+        <f t="shared" si="2"/>
         <v>1.6</v>
       </c>
     </row>
@@ -755,15 +761,15 @@
         <v>1</v>
       </c>
       <c r="D14">
-        <f>C14/8</f>
+        <f t="shared" si="0"/>
         <v>0.125</v>
       </c>
       <c r="E14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="F14">
-        <f>1/D14</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
     </row>
@@ -778,15 +784,15 @@
         <v>2</v>
       </c>
       <c r="D15">
-        <f>C15/8</f>
+        <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
       <c r="E15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="F15">
-        <f>1/D15</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
@@ -801,15 +807,15 @@
         <v>4</v>
       </c>
       <c r="D16">
-        <f>C16/8</f>
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
       <c r="E16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="F16">
-        <f>1/D16</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
@@ -824,15 +830,15 @@
         <v>3</v>
       </c>
       <c r="D17">
-        <f>C17/8</f>
+        <f t="shared" si="0"/>
         <v>0.375</v>
       </c>
       <c r="E17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="F17">
-        <f>1/D17</f>
+        <f t="shared" si="2"/>
         <v>2.6666666666666665</v>
       </c>
     </row>
@@ -847,15 +853,15 @@
         <v>5</v>
       </c>
       <c r="D18">
-        <f>C18/8</f>
+        <f t="shared" si="0"/>
         <v>0.625</v>
       </c>
       <c r="E18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="F18">
-        <f>1/D18</f>
+        <f t="shared" si="2"/>
         <v>1.6</v>
       </c>
     </row>
@@ -870,15 +876,15 @@
         <v>8</v>
       </c>
       <c r="D19">
-        <f>C19/8</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="F19">
-        <f>1/D19</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -893,15 +899,38 @@
         <v>2</v>
       </c>
       <c r="D20">
-        <f>C20/8</f>
+        <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
       <c r="E20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="F20">
-        <f>1/D20</f>
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>

--- a/models/Model index.xlsx
+++ b/models/Model index.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
   <si>
     <t>Item</t>
   </si>
@@ -121,6 +121,9 @@
   </si>
   <si>
     <t>3x1</t>
+  </si>
+  <si>
+    <t>Medical</t>
   </si>
 </sst>
 </file>
@@ -461,10 +464,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:G21"/>
+  <dimension ref="A2:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -509,7 +512,7 @@
         <v>8</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D21" si="0">C3/8</f>
+        <f t="shared" ref="D3:D22" si="0">C3/8</f>
         <v>1</v>
       </c>
       <c r="E3">
@@ -535,11 +538,11 @@
         <v>0.375</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="E4:E21" si="1">C4/C4*2</f>
+        <f t="shared" ref="E4:E22" si="1">C4/C4*2</f>
         <v>2</v>
       </c>
       <c r="F4">
-        <f t="shared" ref="F4:F21" si="2">1/D4</f>
+        <f t="shared" ref="F4:F22" si="2">1/D4</f>
         <v>2.6666666666666665</v>
       </c>
     </row>
@@ -919,17 +922,40 @@
         <v>34</v>
       </c>
       <c r="C21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D21">
         <f t="shared" si="0"/>
+        <v>0.375</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="2"/>
+        <v>2.6666666666666665</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
-      <c r="E21">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="F21">
+      <c r="E22">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="F22">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>

--- a/models/Model index.xlsx
+++ b/models/Model index.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="37">
   <si>
     <t>Item</t>
   </si>
@@ -124,6 +124,9 @@
   </si>
   <si>
     <t>Medical</t>
+  </si>
+  <si>
+    <t>Bluemix Server</t>
   </si>
 </sst>
 </file>
@@ -464,10 +467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:G22"/>
+  <dimension ref="A2:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -958,6 +961,29 @@
       <c r="F22">
         <f t="shared" si="2"/>
         <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23">
+        <v>4</v>
+      </c>
+      <c r="D23">
+        <f t="shared" ref="D23" si="3">C23/8</f>
+        <v>0.5</v>
+      </c>
+      <c r="E23">
+        <f t="shared" ref="E23" si="4">C23/C23*2</f>
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <f t="shared" ref="F23" si="5">1/D23</f>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/models/Model index.xlsx
+++ b/models/Model index.xlsx
@@ -470,7 +470,7 @@
   <dimension ref="A2:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
